--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter01/CreateChart.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter01/CreateChart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\04. Excel - Creating a basic dashboard\Material\Ex_Files_Dashboard_Excel2016\Exercise Files\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6FEFE4-5F40-416C-A213-0A67827254F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,6 +18,9 @@
     <sheet name="Dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Cambridge</t>
   </si>
@@ -87,14 +91,26 @@
   <si>
     <t>Dec</t>
   </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Suma de RoomNights</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -147,7 +163,7 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -157,21 +173,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -192,10 +213,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -210,24 +231,2719 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RoomNights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>23116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52830</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51683</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26691</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F18-47A4-8E3C-88BD27537D0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="729248432"/>
+        <c:axId val="722123328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="729248432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="722123328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="722123328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729248432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[CreateChart.xlsx]Sheet2!TablaDinámica1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cambridge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$3:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3BA-41A1-AFBF-381C93640E9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oxford</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$3:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16470</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3BA-41A1-AFBF-381C93640E9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piccadilly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$3:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7580</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3BA-41A1-AFBF-381C93640E9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Westminster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$3:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3BA-41A1-AFBF-381C93640E9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="721997488"/>
+        <c:axId val="722134976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="721997488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="722134976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="722134976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="721997488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DA88D5-4FD9-4F07-981A-8826A061266D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>269240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD608331-92C6-4093-B99F-CB5DB7BD3B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lester Andrés García Aquino" refreshedDate="44108.668751273151" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12" xr:uid="{F46D8B07-9D0A-4CCD-8D21-9A56976E8CE4}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2015" count="3">
+        <n v="2013"/>
+        <n v="2014"/>
+        <n v="2015"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="RoomType" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Cambridge"/>
+        <s v="Oxford"/>
+        <s v="Piccadilly"/>
+        <s v="Westminster"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="RoomNights" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2170" maxValue="16470"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3933"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3634"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3447"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5442"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6437"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="7580"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="7906"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="14363"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="16470"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15720"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="12374"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{522D1E21-6941-4116-B369-0DC57408A34D}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="E1:J6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de RoomNights" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B13" totalsRowShown="0">
-  <autoFilter ref="A1:B13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B13" totalsRowShown="0">
+  <autoFilter ref="A1:B13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="3" name="Month"/>
-    <tableColumn id="2" name="RoomNights" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="RoomNights" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Year"/>
-    <tableColumn id="2" name="RoomType"/>
-    <tableColumn id="3" name="RoomNights" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="RoomType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="RoomNights" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -554,19 +3270,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -574,7 +3290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -582,7 +3298,7 @@
         <v>23116</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -590,7 +3306,7 @@
         <v>41396</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -598,7 +3314,7 @@
         <v>50133</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -606,7 +3322,7 @@
         <v>46447</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -614,7 +3330,7 @@
         <v>52830</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -622,7 +3338,7 @@
         <v>44709</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -630,7 +3346,7 @@
         <v>35296</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -638,7 +3354,7 @@
         <v>47333</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -646,7 +3362,7 @@
         <v>28873</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -654,7 +3370,7 @@
         <v>51683</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -662,7 +3378,7 @@
         <v>26691</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -679,20 +3395,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -702,8 +3424,14 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2013</v>
       </c>
@@ -713,8 +3441,26 @@
       <c r="C2" s="1">
         <v>3933</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2013</v>
       </c>
@@ -724,8 +3470,26 @@
       <c r="C3" s="1">
         <v>3634</v>
       </c>
+      <c r="E3" s="4">
+        <v>2013</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3933</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3634</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3447</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2170</v>
+      </c>
+      <c r="J3" s="5">
+        <v>13184</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2013</v>
       </c>
@@ -735,8 +3499,26 @@
       <c r="C4" s="1">
         <v>3447</v>
       </c>
+      <c r="E4" s="4">
+        <v>2014</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5442</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6437</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7580</v>
+      </c>
+      <c r="I4" s="5">
+        <v>7906</v>
+      </c>
+      <c r="J4" s="5">
+        <v>27365</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2013</v>
       </c>
@@ -746,8 +3528,26 @@
       <c r="C5" s="1">
         <v>2170</v>
       </c>
+      <c r="E5" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F5" s="5">
+        <v>14363</v>
+      </c>
+      <c r="G5" s="5">
+        <v>16470</v>
+      </c>
+      <c r="H5" s="5">
+        <v>15720</v>
+      </c>
+      <c r="I5" s="5">
+        <v>12374</v>
+      </c>
+      <c r="J5" s="5">
+        <v>58927</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -757,8 +3557,26 @@
       <c r="C6" s="1">
         <v>5442</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5">
+        <v>23738</v>
+      </c>
+      <c r="G6" s="5">
+        <v>26541</v>
+      </c>
+      <c r="H6" s="5">
+        <v>26747</v>
+      </c>
+      <c r="I6" s="5">
+        <v>22450</v>
+      </c>
+      <c r="J6" s="5">
+        <v>99476</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -769,7 +3587,7 @@
         <v>6437</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -780,7 +3598,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -791,7 +3609,7 @@
         <v>7906</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -802,7 +3620,7 @@
         <v>14363</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -813,7 +3631,7 @@
         <v>16470</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -824,7 +3642,7 @@
         <v>15720</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -838,7 +3656,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -849,13 +3667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>